--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.87620768006301</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H2">
-        <v>1.87620768006301</v>
+        <v>7.624765</v>
       </c>
       <c r="I2">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J2">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.981008402036879</v>
+        <v>10.25548833333333</v>
       </c>
       <c r="N2">
-        <v>9.981008402036879</v>
+        <v>30.766465</v>
       </c>
       <c r="O2">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766297</v>
       </c>
       <c r="P2">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766294</v>
       </c>
       <c r="Q2">
-        <v>18.72644461867502</v>
+        <v>26.06522950063611</v>
       </c>
       <c r="R2">
-        <v>18.72644461867502</v>
+        <v>234.587065505725</v>
       </c>
       <c r="S2">
-        <v>0.003566833943765103</v>
+        <v>0.004172258847964229</v>
       </c>
       <c r="T2">
-        <v>0.003566833943765103</v>
+        <v>0.004172258847964227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.87620768006301</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H3">
-        <v>1.87620768006301</v>
+        <v>7.624765</v>
       </c>
       <c r="I3">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J3">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.6272523368922</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
-        <v>74.6272523368922</v>
+        <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298834</v>
       </c>
       <c r="P3">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298831</v>
       </c>
       <c r="Q3">
-        <v>140.0162239764774</v>
+        <v>189.72803396398</v>
       </c>
       <c r="R3">
-        <v>140.0162239764774</v>
+        <v>1707.55230567582</v>
       </c>
       <c r="S3">
-        <v>0.0266689502746866</v>
+        <v>0.03036974864900978</v>
       </c>
       <c r="T3">
-        <v>0.0266689502746866</v>
+        <v>0.03036974864900977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.87620768006301</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H4">
-        <v>1.87620768006301</v>
+        <v>7.624765</v>
       </c>
       <c r="I4">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J4">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.86400860188169</v>
+        <v>0.869824</v>
       </c>
       <c r="N4">
-        <v>0.86400860188169</v>
+        <v>2.609472</v>
       </c>
       <c r="O4">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235204</v>
       </c>
       <c r="P4">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235202</v>
       </c>
       <c r="Q4">
-        <v>1.621059574490931</v>
+        <v>2.210734530453333</v>
       </c>
       <c r="R4">
-        <v>1.621059574490931</v>
+        <v>19.89661077408</v>
       </c>
       <c r="S4">
-        <v>0.000308763912899595</v>
+        <v>0.0003538720694923811</v>
       </c>
       <c r="T4">
-        <v>0.000308763912899595</v>
+        <v>0.0003538720694923811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.87620768006301</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H5">
-        <v>1.87620768006301</v>
+        <v>7.624765</v>
       </c>
       <c r="I5">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J5">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.520787431444503</v>
+        <v>0.6143926666666666</v>
       </c>
       <c r="N5">
-        <v>0.520787431444503</v>
+        <v>1.843178</v>
       </c>
       <c r="O5">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148011</v>
       </c>
       <c r="P5">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148009</v>
       </c>
       <c r="Q5">
-        <v>0.977105378556465</v>
+        <v>1.561533233685555</v>
       </c>
       <c r="R5">
-        <v>0.977105378556465</v>
+        <v>14.05379910317</v>
       </c>
       <c r="S5">
-        <v>0.0001861096808197669</v>
+        <v>0.0002499544786465722</v>
       </c>
       <c r="T5">
-        <v>0.0001861096808197669</v>
+        <v>0.0002499544786465721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.87620768006301</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H6">
-        <v>1.87620768006301</v>
+        <v>7.624765</v>
       </c>
       <c r="I6">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J6">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.6111186869512</v>
+        <v>16.20207433333333</v>
       </c>
       <c r="N6">
-        <v>14.6111186869512</v>
+        <v>48.606223</v>
       </c>
       <c r="O6">
-        <v>0.1452337203725286</v>
+        <v>0.1579285380120706</v>
       </c>
       <c r="P6">
-        <v>0.1452337203725286</v>
+        <v>0.1579285380120706</v>
       </c>
       <c r="Q6">
-        <v>27.41349309477</v>
+        <v>41.17900310139944</v>
       </c>
       <c r="R6">
-        <v>27.41349309477</v>
+        <v>370.611027912595</v>
       </c>
       <c r="S6">
-        <v>0.005221459795421339</v>
+        <v>0.006591519174460647</v>
       </c>
       <c r="T6">
-        <v>0.005221459795421339</v>
+        <v>0.006591519174460645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.7140310127191</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H7">
-        <v>22.7140310127191</v>
+        <v>68.753095</v>
       </c>
       <c r="I7">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="J7">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.981008402036879</v>
+        <v>10.25548833333333</v>
       </c>
       <c r="N7">
-        <v>9.981008402036879</v>
+        <v>30.766465</v>
       </c>
       <c r="O7">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766297</v>
       </c>
       <c r="P7">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766294</v>
       </c>
       <c r="Q7">
-        <v>226.7089343820756</v>
+        <v>235.0321878843528</v>
       </c>
       <c r="R7">
-        <v>226.7089343820756</v>
+        <v>2115.289690959175</v>
       </c>
       <c r="S7">
-        <v>0.04318134803348576</v>
+        <v>0.03762158032918722</v>
       </c>
       <c r="T7">
-        <v>0.04318134803348576</v>
+        <v>0.03762158032918721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.7140310127191</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H8">
-        <v>22.7140310127191</v>
+        <v>68.753095</v>
       </c>
       <c r="I8">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="J8">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.6272523368922</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
-        <v>74.6272523368922</v>
+        <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298834</v>
       </c>
       <c r="P8">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298831</v>
       </c>
       <c r="Q8">
-        <v>1695.085723974183</v>
+        <v>1710.79233829354</v>
       </c>
       <c r="R8">
-        <v>1695.085723974183</v>
+        <v>15397.13104464186</v>
       </c>
       <c r="S8">
-        <v>0.3228637053631245</v>
+        <v>0.2738463695591262</v>
       </c>
       <c r="T8">
-        <v>0.3228637053631245</v>
+        <v>0.2738463695591261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.7140310127191</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H9">
-        <v>22.7140310127191</v>
+        <v>68.753095</v>
       </c>
       <c r="I9">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="J9">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.86400860188169</v>
+        <v>0.869824</v>
       </c>
       <c r="N9">
-        <v>0.86400860188169</v>
+        <v>2.609472</v>
       </c>
       <c r="O9">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235204</v>
       </c>
       <c r="P9">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235202</v>
       </c>
       <c r="Q9">
-        <v>19.62511817839678</v>
+        <v>19.93436403509333</v>
       </c>
       <c r="R9">
-        <v>19.62511817839678</v>
+        <v>179.40927631584</v>
       </c>
       <c r="S9">
-        <v>0.003738004682389089</v>
+        <v>0.003190891786390306</v>
       </c>
       <c r="T9">
-        <v>0.003738004682389089</v>
+        <v>0.003190891786390306</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.7140310127191</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H10">
-        <v>22.7140310127191</v>
+        <v>68.753095</v>
       </c>
       <c r="I10">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="J10">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.520787431444503</v>
+        <v>0.6143926666666666</v>
       </c>
       <c r="N10">
-        <v>0.520787431444503</v>
+        <v>1.843178</v>
       </c>
       <c r="O10">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148011</v>
       </c>
       <c r="P10">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148009</v>
       </c>
       <c r="Q10">
-        <v>11.82918186886476</v>
+        <v>14.08046579287889</v>
       </c>
       <c r="R10">
-        <v>11.82918186886476</v>
+        <v>126.72419213591</v>
       </c>
       <c r="S10">
-        <v>0.002253109347556593</v>
+        <v>0.002253858842346387</v>
       </c>
       <c r="T10">
-        <v>0.002253109347556593</v>
+        <v>0.002253858842346386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.7140310127191</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H11">
-        <v>22.7140310127191</v>
+        <v>68.753095</v>
       </c>
       <c r="I11">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="J11">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.6111186869512</v>
+        <v>16.20207433333333</v>
       </c>
       <c r="N11">
-        <v>14.6111186869512</v>
+        <v>48.606223</v>
       </c>
       <c r="O11">
-        <v>0.1452337203725286</v>
+        <v>0.1579285380120706</v>
       </c>
       <c r="P11">
-        <v>0.1452337203725286</v>
+        <v>0.1579285380120706</v>
       </c>
       <c r="Q11">
-        <v>331.8774029859291</v>
+        <v>371.3142519455761</v>
       </c>
       <c r="R11">
-        <v>331.8774029859291</v>
+        <v>3341.828267510185</v>
       </c>
       <c r="S11">
-        <v>0.06321283138595998</v>
+        <v>0.05943623757532389</v>
       </c>
       <c r="T11">
-        <v>0.06321283138595998</v>
+        <v>0.05943623757532387</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>27.5960525443936</v>
+        <v>0.04007766666666667</v>
       </c>
       <c r="H12">
-        <v>27.5960525443936</v>
+        <v>0.120233</v>
       </c>
       <c r="I12">
-        <v>0.5287988835798917</v>
+        <v>0.0006581458169070119</v>
       </c>
       <c r="J12">
-        <v>0.5287988835798917</v>
+        <v>0.0006581458169070119</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.981008402036879</v>
+        <v>10.25548833333333</v>
       </c>
       <c r="N12">
-        <v>9.981008402036879</v>
+        <v>30.766465</v>
       </c>
       <c r="O12">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766297</v>
       </c>
       <c r="P12">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766294</v>
       </c>
       <c r="Q12">
-        <v>275.4364323086438</v>
+        <v>0.4110160429272223</v>
       </c>
       <c r="R12">
-        <v>275.4364323086438</v>
+        <v>3.699144386345</v>
       </c>
       <c r="S12">
-        <v>0.0524624954770267</v>
+        <v>6.57912995439575E-05</v>
       </c>
       <c r="T12">
-        <v>0.0524624954770267</v>
+        <v>6.579129954395749E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>27.5960525443936</v>
+        <v>0.04007766666666667</v>
       </c>
       <c r="H13">
-        <v>27.5960525443936</v>
+        <v>0.120233</v>
       </c>
       <c r="I13">
-        <v>0.5287988835798917</v>
+        <v>0.0006581458169070119</v>
       </c>
       <c r="J13">
-        <v>0.5287988835798917</v>
+        <v>0.0006581458169070119</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.6272523368922</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N13">
-        <v>74.6272523368922</v>
+        <v>223.948188</v>
       </c>
       <c r="O13">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298834</v>
       </c>
       <c r="P13">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298831</v>
       </c>
       <c r="Q13">
-        <v>2059.417576732597</v>
+        <v>2.991773609756001</v>
       </c>
       <c r="R13">
-        <v>2059.417576732597</v>
+        <v>26.925962487804</v>
       </c>
       <c r="S13">
-        <v>0.39225814972645</v>
+        <v>0.000478892921856135</v>
       </c>
       <c r="T13">
-        <v>0.39225814972645</v>
+        <v>0.0004788929218561348</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>27.5960525443936</v>
+        <v>0.04007766666666667</v>
       </c>
       <c r="H14">
-        <v>27.5960525443936</v>
+        <v>0.120233</v>
       </c>
       <c r="I14">
-        <v>0.5287988835798917</v>
+        <v>0.0006581458169070119</v>
       </c>
       <c r="J14">
-        <v>0.5287988835798917</v>
+        <v>0.0006581458169070119</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.86400860188169</v>
+        <v>0.869824</v>
       </c>
       <c r="N14">
-        <v>0.86400860188169</v>
+        <v>2.609472</v>
       </c>
       <c r="O14">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235204</v>
       </c>
       <c r="P14">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235202</v>
       </c>
       <c r="Q14">
-        <v>23.84322677633517</v>
+        <v>0.03486051633066667</v>
       </c>
       <c r="R14">
-        <v>23.84322677633517</v>
+        <v>0.313744646976</v>
       </c>
       <c r="S14">
-        <v>0.004541429637418198</v>
+        <v>5.580119588115498E-06</v>
       </c>
       <c r="T14">
-        <v>0.004541429637418198</v>
+        <v>5.580119588115496E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>27.5960525443936</v>
+        <v>0.04007766666666667</v>
       </c>
       <c r="H15">
-        <v>27.5960525443936</v>
+        <v>0.120233</v>
       </c>
       <c r="I15">
-        <v>0.5287988835798917</v>
+        <v>0.0006581458169070119</v>
       </c>
       <c r="J15">
-        <v>0.5287988835798917</v>
+        <v>0.0006581458169070119</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.520787431444503</v>
+        <v>0.6143926666666666</v>
       </c>
       <c r="N15">
-        <v>0.520787431444503</v>
+        <v>1.843178</v>
       </c>
       <c r="O15">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148011</v>
       </c>
       <c r="P15">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148009</v>
       </c>
       <c r="Q15">
-        <v>14.37167732260228</v>
+        <v>0.02462342449711111</v>
       </c>
       <c r="R15">
-        <v>14.37167732260228</v>
+        <v>0.221610820474</v>
       </c>
       <c r="S15">
-        <v>0.002737379547849482</v>
+        <v>3.941469255919798E-06</v>
       </c>
       <c r="T15">
-        <v>0.002737379547849482</v>
+        <v>3.941469255919796E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04007766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.120233</v>
+      </c>
+      <c r="I16">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="J16">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.20207433333333</v>
+      </c>
+      <c r="N16">
+        <v>48.606223</v>
+      </c>
+      <c r="O16">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="P16">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="Q16">
+        <v>0.649341334439889</v>
+      </c>
+      <c r="R16">
+        <v>5.844072009959</v>
+      </c>
+      <c r="S16">
+        <v>0.0001039400066628843</v>
+      </c>
+      <c r="T16">
+        <v>0.0001039400066628843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>35.395449</v>
+      </c>
+      <c r="H17">
+        <v>106.186347</v>
+      </c>
+      <c r="I17">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J17">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.25548833333333</v>
+      </c>
+      <c r="N17">
+        <v>30.766465</v>
+      </c>
+      <c r="O17">
+        <v>0.09996462463766297</v>
+      </c>
+      <c r="P17">
+        <v>0.09996462463766294</v>
+      </c>
+      <c r="Q17">
+        <v>362.997614272595</v>
+      </c>
+      <c r="R17">
+        <v>3266.978528453355</v>
+      </c>
+      <c r="S17">
+        <v>0.05810499416096756</v>
+      </c>
+      <c r="T17">
+        <v>0.05810499416096754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>35.395449</v>
+      </c>
+      <c r="H18">
+        <v>106.186347</v>
+      </c>
+      <c r="I18">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J18">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>74.64939600000001</v>
+      </c>
+      <c r="N18">
+        <v>223.948188</v>
+      </c>
+      <c r="O18">
+        <v>0.7276395436298834</v>
+      </c>
+      <c r="P18">
+        <v>0.7276395436298831</v>
+      </c>
+      <c r="Q18">
+        <v>2642.248888998804</v>
+      </c>
+      <c r="R18">
+        <v>23780.24000098924</v>
+      </c>
+      <c r="S18">
+        <v>0.4229445324998912</v>
+      </c>
+      <c r="T18">
+        <v>0.4229445324998911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>35.395449</v>
+      </c>
+      <c r="H19">
+        <v>106.186347</v>
+      </c>
+      <c r="I19">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J19">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.869824</v>
+      </c>
+      <c r="N19">
+        <v>2.609472</v>
+      </c>
+      <c r="O19">
+        <v>0.008478546007235204</v>
+      </c>
+      <c r="P19">
+        <v>0.008478546007235202</v>
+      </c>
+      <c r="Q19">
+        <v>30.787811030976</v>
+      </c>
+      <c r="R19">
+        <v>277.090299278784</v>
+      </c>
+      <c r="S19">
+        <v>0.004928202031764401</v>
+      </c>
+      <c r="T19">
+        <v>0.0049282020317644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>27.5960525443936</v>
-      </c>
-      <c r="H16">
-        <v>27.5960525443936</v>
-      </c>
-      <c r="I16">
-        <v>0.5287988835798917</v>
-      </c>
-      <c r="J16">
-        <v>0.5287988835798917</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.6111186869512</v>
-      </c>
-      <c r="N16">
-        <v>14.6111186869512</v>
-      </c>
-      <c r="O16">
-        <v>0.1452337203725286</v>
-      </c>
-      <c r="P16">
-        <v>0.1452337203725286</v>
-      </c>
-      <c r="Q16">
-        <v>403.2091990174765</v>
-      </c>
-      <c r="R16">
-        <v>403.2091990174765</v>
-      </c>
-      <c r="S16">
-        <v>0.07679942919114731</v>
-      </c>
-      <c r="T16">
-        <v>0.07679942919114731</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>35.395449</v>
+      </c>
+      <c r="H20">
+        <v>106.186347</v>
+      </c>
+      <c r="I20">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J20">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6143926666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.843178</v>
+      </c>
+      <c r="O20">
+        <v>0.005988747713148011</v>
+      </c>
+      <c r="P20">
+        <v>0.005988747713148009</v>
+      </c>
+      <c r="Q20">
+        <v>21.746704298974</v>
+      </c>
+      <c r="R20">
+        <v>195.720338690766</v>
+      </c>
+      <c r="S20">
+        <v>0.003480992922899132</v>
+      </c>
+      <c r="T20">
+        <v>0.003480992922899131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>35.395449</v>
+      </c>
+      <c r="H21">
+        <v>106.186347</v>
+      </c>
+      <c r="I21">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J21">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.20207433333333</v>
+      </c>
+      <c r="N21">
+        <v>48.606223</v>
+      </c>
+      <c r="O21">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="P21">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="Q21">
+        <v>573.479695759709</v>
+      </c>
+      <c r="R21">
+        <v>5161.317261837381</v>
+      </c>
+      <c r="S21">
+        <v>0.09179684125562318</v>
+      </c>
+      <c r="T21">
+        <v>0.09179684125562317</v>
       </c>
     </row>
   </sheetData>
